--- a/data/operators.xlsx
+++ b/data/operators.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dagi\Downloads\Telegram Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bibliothek\Documents\raju\TelBot uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0D28BC-1345-41D7-B2C2-14976B8CE91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2244" yWindow="2028" windowWidth="17280" windowHeight="9072" xr2:uid="{2DDD7777-0F94-4B9C-86EC-06EAA27EA8E4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>Dagmawi Negussu</t>
   </si>
   <si>
-    <t>Yonas</t>
-  </si>
-  <si>
     <t>Abay Bus(አባይ ባስ)</t>
   </si>
   <si>
@@ -49,12 +45,120 @@
   </si>
   <si>
     <t>Ghion Bus(ጊዮን ባስ)</t>
+  </si>
+  <si>
+    <t>Tassew  Teferra</t>
+  </si>
+  <si>
+    <t>Noah Agent 01</t>
+  </si>
+  <si>
+    <t>Hirut</t>
+  </si>
+  <si>
+    <t>Habtamu</t>
+  </si>
+  <si>
+    <t>Abraham</t>
+  </si>
+  <si>
+    <t>Solomon</t>
+  </si>
+  <si>
+    <t>Belay Alem</t>
+  </si>
+  <si>
+    <t>Asrat</t>
+  </si>
+  <si>
+    <t>Beirhanu</t>
+  </si>
+  <si>
+    <t>Mahlet</t>
+  </si>
+  <si>
+    <t>Misrak</t>
+  </si>
+  <si>
+    <t>Asfaw</t>
+  </si>
+  <si>
+    <t>Soliana</t>
+  </si>
+  <si>
+    <t>Bzuyehu</t>
+  </si>
+  <si>
+    <t>Ermias</t>
+  </si>
+  <si>
+    <t>Aselef</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>Yonas HM</t>
+  </si>
+  <si>
+    <t>Ehtnesh F</t>
+  </si>
+  <si>
+    <t>Waliya Bus (ዋሊያ ባስ)</t>
+  </si>
+  <si>
+    <t>Unity Bus(አንድነት ባስ)</t>
+  </si>
+  <si>
+    <t>Fikir Bus(ፍቅር ባስ)</t>
+  </si>
+  <si>
+    <t>Habesha Bus(ሃበሻ ባስ)</t>
+  </si>
+  <si>
+    <t>Birhan Bus(ብርሃን ባስ)</t>
+  </si>
+  <si>
+    <t>Selam Bus(ሰላም ባስ)</t>
+  </si>
+  <si>
+    <t>Golden Bus (ጎልደን ባስ)</t>
+  </si>
+  <si>
+    <t>Odaa Bus(ኦዳ ባስ)</t>
+  </si>
+  <si>
+    <t>Addis Alem Bus(አዲስ አለም ባስ)</t>
+  </si>
+  <si>
+    <t>Saleh</t>
+  </si>
+  <si>
+    <t>Birhan</t>
+  </si>
+  <si>
+    <t>Addisu</t>
+  </si>
+  <si>
+    <t>Zemen Bus(ዘመን ባስ)</t>
+  </si>
+  <si>
+    <t>Noah Transport(ኖህ ትራንስፖርት)</t>
+  </si>
+  <si>
+    <t>Yegna Bus(የኛ ባስ)</t>
+  </si>
+  <si>
+    <t>Ethio Bus(ኢትዮ ባስ)</t>
+  </si>
+  <si>
+    <t>AirBus(ኤር ባስ)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -88,7 +192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -399,36 +503,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE1AFED3-F5E2-444B-88B3-EB392CDE7678}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="27.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -439,21 +543,343 @@
         <v>1234</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B3">
-        <v>911149261</v>
+        <v>946365428</v>
       </c>
       <c r="C3">
         <v>8144</v>
       </c>
       <c r="D3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>7</v>
+      </c>
+      <c r="B4">
+        <v>911564433</v>
+      </c>
+      <c r="C4">
+        <v>4433</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>912628144</v>
+      </c>
+      <c r="C5">
+        <v>8144</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>900112233</v>
+      </c>
+      <c r="C6">
+        <v>7171</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>911112233</v>
+      </c>
+      <c r="C7">
+        <v>2694</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>922112233</v>
+      </c>
+      <c r="C8">
+        <v>6969</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>933112233</v>
+      </c>
+      <c r="C9">
+        <v>1919</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>944112233</v>
+      </c>
+      <c r="C10">
+        <v>3695</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>955112233</v>
+      </c>
+      <c r="C11">
+        <v>4343</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>966112233</v>
+      </c>
+      <c r="C12">
+        <v>9090</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>977112233</v>
+      </c>
+      <c r="C13">
+        <v>2020</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>988112233</v>
+      </c>
+      <c r="C14">
+        <v>3333</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>999112233</v>
+      </c>
+      <c r="C15">
+        <v>6262</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>911223344</v>
+      </c>
+      <c r="C16">
+        <v>9423</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>922223344</v>
+      </c>
+      <c r="C17">
+        <v>7474</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>933223344</v>
+      </c>
+      <c r="C18">
+        <v>9472</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>944223344</v>
+      </c>
+      <c r="C19">
+        <v>7979</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>955223344</v>
+      </c>
+      <c r="C20">
+        <v>2020</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>966223344</v>
+      </c>
+      <c r="C21">
+        <v>8484</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>977223344</v>
+      </c>
+      <c r="C22">
+        <v>9393</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>988223344</v>
+      </c>
+      <c r="C23">
+        <v>9292</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24">
+        <v>999223344</v>
+      </c>
+      <c r="C24">
+        <v>1122</v>
+      </c>
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25">
+        <v>900223344</v>
+      </c>
+      <c r="C25">
+        <v>1122</v>
+      </c>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26">
+        <v>933445566</v>
+      </c>
+      <c r="C26">
+        <v>2233</v>
+      </c>
+      <c r="D26" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
